--- a/src/test/data/inputs/keyvalue.xlsx
+++ b/src/test/data/inputs/keyvalue.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="18240" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="keyvakue" sheetId="1" r:id="rId1"/>
+    <sheet name="keyvalue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -507,7 +507,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/data/inputs/keyvalue.xlsx
+++ b/src/test/data/inputs/keyvalue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -39,13 +39,6 @@
   </si>
   <si>
     <t>filePath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -96,6 +89,74 @@
     <rPh sb="0" eb="1">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-22.333</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>99999999999999999999</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2016/2/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>boolean1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>boolean2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -504,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -550,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -562,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -574,10 +635,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -586,12 +647,108 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
